--- a/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Itga11</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H2">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>33.8855762133903</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N2">
-        <v>33.8855762133903</v>
+        <v>0.120715</v>
       </c>
       <c r="O2">
-        <v>0.9757166953961254</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="P2">
-        <v>0.9757166953961254</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="Q2">
-        <v>332.5111391012503</v>
+        <v>0.3995928988061111</v>
       </c>
       <c r="R2">
-        <v>332.5111391012503</v>
+        <v>3.596336089255</v>
       </c>
       <c r="S2">
-        <v>0.9447889748596086</v>
+        <v>0.001116248735083253</v>
       </c>
       <c r="T2">
-        <v>0.9447889748596086</v>
+        <v>0.001116248735083253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H3">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.84333267304963</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N3">
-        <v>0.84333267304963</v>
+        <v>101.839199</v>
       </c>
       <c r="O3">
-        <v>0.02428330460387465</v>
+        <v>0.9734851120464462</v>
       </c>
       <c r="P3">
-        <v>0.02428330460387465</v>
+        <v>0.9734851120464463</v>
       </c>
       <c r="Q3">
-        <v>8.275423914621948</v>
+        <v>337.1098930580492</v>
       </c>
       <c r="R3">
-        <v>8.275423914621948</v>
+        <v>3033.989037522443</v>
       </c>
       <c r="S3">
-        <v>0.02351358603491356</v>
+        <v>0.9417046519955408</v>
       </c>
       <c r="T3">
-        <v>0.02351358603491356</v>
+        <v>0.9417046519955408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.32122136213078</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H4">
-        <v>0.32122136213078</v>
+        <v>29.791957</v>
       </c>
       <c r="I4">
-        <v>0.03169743910547795</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J4">
-        <v>0.03169743910547795</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.8855762133903</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N4">
-        <v>33.8855762133903</v>
+        <v>2.653087</v>
       </c>
       <c r="O4">
-        <v>0.9757166953961254</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="P4">
-        <v>0.9757166953961254</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="Q4">
-        <v>10.88477094785159</v>
+        <v>8.782294869028778</v>
       </c>
       <c r="R4">
-        <v>10.88477094785159</v>
+        <v>79.040653821259</v>
       </c>
       <c r="S4">
-        <v>0.03092772053651686</v>
+        <v>0.0245330324136671</v>
       </c>
       <c r="T4">
-        <v>0.03092772053651686</v>
+        <v>0.02453303241366709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3351376666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.005413</v>
+      </c>
+      <c r="I5">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="J5">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04023833333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.120715</v>
+      </c>
+      <c r="O5">
+        <v>0.001153919673903629</v>
+      </c>
+      <c r="P5">
+        <v>0.001153919673903629</v>
+      </c>
+      <c r="Q5">
+        <v>0.01348538114388889</v>
+      </c>
+      <c r="R5">
+        <v>0.121368430295</v>
+      </c>
+      <c r="S5">
+        <v>3.767093882037554E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.767093882037554E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.32122136213078</v>
-      </c>
-      <c r="H5">
-        <v>0.32122136213078</v>
-      </c>
-      <c r="I5">
-        <v>0.03169743910547795</v>
-      </c>
-      <c r="J5">
-        <v>0.03169743910547795</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.84333267304963</v>
-      </c>
-      <c r="N5">
-        <v>0.84333267304963</v>
-      </c>
-      <c r="O5">
-        <v>0.02428330460387465</v>
-      </c>
-      <c r="P5">
-        <v>0.02428330460387465</v>
-      </c>
-      <c r="Q5">
-        <v>0.2708964699663939</v>
-      </c>
-      <c r="R5">
-        <v>0.2708964699663939</v>
-      </c>
-      <c r="S5">
-        <v>0.0007697185689610891</v>
-      </c>
-      <c r="T5">
-        <v>0.0007697185689610891</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3351376666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.005413</v>
+      </c>
+      <c r="I6">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="J6">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>33.94639966666666</v>
+      </c>
+      <c r="N6">
+        <v>101.839199</v>
+      </c>
+      <c r="O6">
+        <v>0.9734851120464462</v>
+      </c>
+      <c r="P6">
+        <v>0.9734851120464463</v>
+      </c>
+      <c r="Q6">
+        <v>11.37671717602078</v>
+      </c>
+      <c r="R6">
+        <v>102.390454584187</v>
+      </c>
+      <c r="S6">
+        <v>0.03178046005090544</v>
+      </c>
+      <c r="T6">
+        <v>0.03178046005090544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3351376666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.005413</v>
+      </c>
+      <c r="I7">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="J7">
+        <v>0.03264606685570878</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8843623333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.653087</v>
+      </c>
+      <c r="O7">
+        <v>0.02536096827965006</v>
+      </c>
+      <c r="P7">
+        <v>0.02536096827965006</v>
+      </c>
+      <c r="Q7">
+        <v>0.2963831288812222</v>
+      </c>
+      <c r="R7">
+        <v>2.667448159931</v>
+      </c>
+      <c r="S7">
+        <v>0.0008279358659829657</v>
+      </c>
+      <c r="T7">
+        <v>0.0008279358659829655</v>
       </c>
     </row>
   </sheetData>
